--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -37,60 +37,27 @@
     <t>Product_TC_003</t>
   </si>
   <si>
-    <t xml:space="preserve">search product: blue
-</t>
-  </si>
-  <si>
-    <t>preprod</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
     <t>To be in product page https://www.automationexercise.com/products</t>
   </si>
   <si>
-    <t xml:space="preserve">search product: shose
-</t>
-  </si>
-  <si>
     <t>Product_TC_004</t>
   </si>
   <si>
-    <t>All search result should contain the search keyword.</t>
-  </si>
-  <si>
     <t>Product_TC_005</t>
   </si>
   <si>
     <t>Product_TC_006</t>
   </si>
   <si>
-    <t xml:space="preserve">search product: blue top
-</t>
-  </si>
-  <si>
-    <t>The search keywords result appeared in first list in one product and other related results didn't appear next</t>
-  </si>
-  <si>
     <t>The search keywords result appeared in first list in one product and other related results to these keywords should appear next</t>
   </si>
   <si>
     <t>No message had appeared</t>
   </si>
   <si>
-    <t>The boxes weren't aligned together(differnent dimensions height and width)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> User should see message "There is no results related to this search keyword"</t>
-  </si>
-  <si>
-    <t>All related search results should be appear</t>
-  </si>
-  <si>
-    <t>All related search results didn't be appear</t>
-  </si>
-  <si>
     <t>Test preconditions</t>
   </si>
   <si>
@@ -139,9 +106,6 @@
     <t>Should be on https://www.automationexercise.com/products</t>
   </si>
   <si>
-    <t>Open successfully</t>
-  </si>
-  <si>
     <t>Product_TC_007</t>
   </si>
   <si>
@@ -191,9 +155,6 @@
   </si>
   <si>
     <t>The user want to search products with keywords by press enter from keyword</t>
-  </si>
-  <si>
-    <t>The boxes that contain the product details should be aligned together (Same dimensions height and width)</t>
   </si>
   <si>
     <t xml:space="preserve">The boxes that contain the product details should be aligned together </t>
@@ -271,157 +232,253 @@
 </t>
   </si>
   <si>
+    <t>User can see details of these products before checkout</t>
+  </si>
+  <si>
+    <t>The user can see the added products to the cart.</t>
+  </si>
+  <si>
+    <t>Show selected items</t>
+  </si>
+  <si>
+    <t>View product details</t>
+  </si>
+  <si>
+    <t>The table should contain 6 columns (Item, Description, Price, Quantity, Total, Remove)</t>
+  </si>
+  <si>
+    <t>There are six columns in this table.</t>
+  </si>
+  <si>
+    <t>Cart_TC_008</t>
+  </si>
+  <si>
+    <t>Cart_TC_009</t>
+  </si>
+  <si>
+    <t>Cart_TC_0010</t>
+  </si>
+  <si>
+    <t>Check the quantity is equal the product that has been selected</t>
+  </si>
+  <si>
+    <t>The quantity is equal the product that has been selected</t>
+  </si>
+  <si>
+    <t>Check quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to remove product  from his cart by clicking the X sign </t>
+  </si>
+  <si>
+    <t>Click on X sign</t>
+  </si>
+  <si>
+    <t>View table of cart</t>
+  </si>
+  <si>
+    <t>User should be able to control the quantity of the products from cart page</t>
+  </si>
+  <si>
+    <t>Check the total price should change according to the quantity of the added products</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/view_cart                                     2- check the total price</t>
+  </si>
+  <si>
+    <t>Check the total price</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/view_cart                                     2-click on X sign</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/view_cart                                     2-check quantity</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/view_cart                                     2-view table of cart</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/view_cart                                     2-view product details</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/view_cart                                     2-show selected items</t>
+  </si>
+  <si>
+    <t>The total price is based on the quantity of products added.</t>
+  </si>
+  <si>
+    <t>Check the quantity is equal the product that has been selected multiple times</t>
+  </si>
+  <si>
+    <t>The quantity is equal the product that has been selected multiple times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the quantity is equal the multiple products that has been selected </t>
+  </si>
+  <si>
+    <t>The quantity is equal the multiple products that has been selected</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/view_cart                                     2- check control the quantity of the products from cart page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check control the quantity of the products from cart page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_TC_002   </t>
+  </si>
+  <si>
+    <t>Cart_TC_010</t>
+  </si>
+  <si>
+    <t>check on X sign</t>
+  </si>
+  <si>
+    <t>There is no error message if there are no matching results</t>
+  </si>
+  <si>
+    <t>Check the user can enter product page without login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- open https://www.automationexercise.com
+2-Click on product link.
+</t>
+  </si>
+  <si>
+    <t>we are testing on chrome browser - automation excercise production environemnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user can search by click button search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">search product: blue       click on search button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All related search results is shown in productPage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">search product: blue       pressing enter from keyboard
+</t>
+  </si>
+  <si>
+    <t>The user can search by pressing enter from keyboard</t>
+  </si>
+  <si>
+    <t>the user can't search by pressing enter from keyboard</t>
+  </si>
+  <si>
     <t xml:space="preserve">1- open https://www.automationexercise.com/products
 2-enter keyword in search field.
-3- press enter from keyword
+3- pressing enter from keyboard
 </t>
   </si>
   <si>
-    <t>The user enter keyword in search field with click button search</t>
-  </si>
-  <si>
-    <t>The user enter keyword in search field with press enter from keyword</t>
-  </si>
-  <si>
-    <t>The user failed to enter keyword in search field with press enter from keyword</t>
-  </si>
-  <si>
-    <t>The user failed to enter keyword in search field with click button search</t>
-  </si>
-  <si>
-    <t>The user click the navigationbar of product without login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- open https://www.automationexercise.com
-2-Click the navigationbar of product.
-</t>
-  </si>
-  <si>
-    <t>User click the navigationbar of Cart without login</t>
-  </si>
-  <si>
-    <t>User can see details of these products before checkout</t>
-  </si>
-  <si>
-    <t>The user can see the added products to the cart.</t>
-  </si>
-  <si>
-    <t>Show selected items</t>
-  </si>
-  <si>
-    <t>Show selected items.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> View product details</t>
-  </si>
-  <si>
-    <t>View product details</t>
-  </si>
-  <si>
-    <t>The table should contain 6 columns (Item, Description, Price, Quantity, Total, Remove)</t>
-  </si>
-  <si>
-    <t>There are six columns in this table.</t>
-  </si>
-  <si>
-    <t>Cart_TC_008</t>
-  </si>
-  <si>
-    <t>Cart_TC_009</t>
-  </si>
-  <si>
-    <t>Cart_TC_0010</t>
-  </si>
-  <si>
-    <t>Check the quantity is equal the product that has been selected</t>
-  </si>
-  <si>
-    <t>The quantity is equal the product that has been selected</t>
-  </si>
-  <si>
-    <t>Check quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to remove product  from his cart by clicking the X sign </t>
-  </si>
-  <si>
-    <t>Click on X sign</t>
-  </si>
-  <si>
-    <t>Remove successfully</t>
-  </si>
-  <si>
-    <t>View table of cart</t>
-  </si>
-  <si>
-    <t>User should be able to control the quantity of the products from cart page</t>
-  </si>
-  <si>
-    <t>The user was not able to control the quantity of the products from cart page</t>
-  </si>
-  <si>
-    <t>The user able to control the quantity of the products from cart page</t>
-  </si>
-  <si>
-    <t>Check the total price should change according to the quantity of the added products</t>
-  </si>
-  <si>
-    <t>1- open https://www.automationexercise.com/view_cart                                     2- check the total price</t>
-  </si>
-  <si>
-    <t>Check the total price</t>
-  </si>
-  <si>
-    <t>1- open https://www.automationexercise.com/view_cart                                     2-click on X sign</t>
-  </si>
-  <si>
-    <t>1- open https://www.automationexercise.com/view_cart                                     2-check quantity</t>
-  </si>
-  <si>
-    <t>1- open https://www.automationexercise.com/view_cart                                     2-view table of cart</t>
-  </si>
-  <si>
-    <t>1- open https://www.automationexercise.com/view_cart                                     2-view product details</t>
-  </si>
-  <si>
-    <t>1- open https://www.automationexercise.com/view_cart                                     2-show selected items</t>
+    <t>All related search results didn't shown in product Page</t>
+  </si>
+  <si>
+    <t>productPage open successfully</t>
+  </si>
+  <si>
+    <t>search product: shose
+click on search button</t>
+  </si>
+  <si>
+    <t>search product: blue top
+click on search button</t>
+  </si>
+  <si>
+    <t>Check the box of products have the same dimensions height and width</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the box of products have the same dimensions height and width</t>
+  </si>
+  <si>
+    <t>The boxes of products have differnent dimensions height and width</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/products
+2-enter keyword in search field.
+3- click on search button                  4-check the box of products</t>
+  </si>
+  <si>
+    <t>search product: blue
+click on search button check the box of products</t>
+  </si>
+  <si>
+    <t>Check the result of search product is appeared in first list in one product and other related results appear next</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the result of search product is appeared in first list in one product and other related results appear next</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the result of search product is appeared in first list in one product and other related results didn't appear next</t>
+  </si>
+  <si>
+    <t>1- open https://www.automationexercise.com/products
+2-enter keyword in search field.
+3- click on search button                  4-check results of products</t>
+  </si>
+  <si>
+    <t>Check the error message if there are no matching results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  There is no results related to this search keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the search result is contain the search product </t>
+  </si>
+  <si>
+    <t>All search result is contain the search keyword.</t>
+  </si>
+  <si>
+    <t>Check the user can enter cart page without login</t>
+  </si>
+  <si>
+    <t>cartPage open successfully</t>
   </si>
   <si>
     <t>1- open https://www.automationexercise.com
-2-click the navigationbar of cart.</t>
-  </si>
-  <si>
-    <t>The total price is based on the quantity of products added.</t>
-  </si>
-  <si>
-    <t>Check the quantity is equal the product that has been selected multiple times</t>
-  </si>
-  <si>
-    <t>The quantity is equal the product that has been selected multiple times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the quantity is equal the multiple products that has been selected </t>
-  </si>
-  <si>
-    <t>The quantity is equal the multiple products that has been selected</t>
-  </si>
-  <si>
-    <t>User was not able to control the quantity of the products from cart page</t>
-  </si>
-  <si>
-    <t>1- open https://www.automationexercise.com/view_cart                                     2- check control the quantity of the products from cart page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> check control the quantity of the products from cart page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cart_TC_002   </t>
-  </si>
-  <si>
-    <t>Cart_TC_010</t>
-  </si>
-  <si>
-    <t>check on X sign</t>
+2-click on cart link.</t>
+  </si>
+  <si>
+    <t>Check the user can see the added products to the cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display the all of product added </t>
+  </si>
+  <si>
+    <t>display the all of product added</t>
+  </si>
+  <si>
+    <t>Check the user can see details of these products before checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View product details before checkout</t>
+  </si>
+  <si>
+    <t>Check the table contain 6 columns (Item, Description, Price, Quantity, Total, Remove)</t>
+  </si>
+  <si>
+    <t>Check the total price can change according to the quantity of the added products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the user can remove product  from his cart by clicking the X sign </t>
+  </si>
+  <si>
+    <t>Check the user can control the quantity of the products from cart page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The user can control the quantity of the products from cart page</t>
+  </si>
+  <si>
+    <t>The user can't control the quantity of the products from cart page</t>
+  </si>
+  <si>
+    <t>The product is remove successfully</t>
+  </si>
+  <si>
+    <t>Check the user can't control the quantity of the products from cart page</t>
   </si>
 </sst>
 </file>
@@ -516,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -768,11 +825,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -846,12 +916,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -861,22 +1002,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,61 +1017,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,136 +1545,136 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="36"/>
+      <c r="A5" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>38</v>
+      <c r="A9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="44"/>
+        <v>46</v>
+      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="56"/>
       <c r="C11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="45"/>
+        <v>51</v>
+      </c>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="B12" s="56"/>
       <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,17 +1684,17 @@
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="A17" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,25 +1705,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,25 +1731,25 @@
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>8</v>
+        <v>107</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>2</v>
@@ -1681,25 +1760,25 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>2</v>
@@ -1710,54 +1789,54 @@
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>7</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>7</v>
+        <v>70</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>8</v>
+        <v>132</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>2</v>
@@ -1765,103 +1844,106 @@
     </row>
     <row r="24" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>82</v>
+      <c r="D26" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="40"/>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
@@ -1869,310 +1951,310 @@
         <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>8</v>
+        <v>115</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="40"/>
+        <v>43</v>
+      </c>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="D36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="42" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="1:10" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="1:10" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="41"/>
-    </row>
-    <row r="42" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>77</v>
+      <c r="A46" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="57"/>
+        <v>102</v>
+      </c>
+      <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="45"/>
+        <v>57</v>
+      </c>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="45"/>
+        <v>59</v>
+      </c>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="55"/>
+        <v>60</v>
+      </c>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="55"/>
+        <v>77</v>
+      </c>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>128</v>
+        <v>86</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="58"/>
+        <v>103</v>
+      </c>
+      <c r="D55" s="48"/>
     </row>
     <row r="58" spans="1:9" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+      <c r="A58" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -2183,254 +2265,254 @@
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>8</v>
+        <v>135</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>8</v>
+        <v>137</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>8</v>
+        <v>140</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="35" t="s">
         <v>108</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>8</v>
+        <v>97</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="G68" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>2</v>
@@ -2438,77 +2520,77 @@
     </row>
     <row r="69" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="G69" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="E69" s="38" t="s">
         <v>101</v>
       </c>
+      <c r="F69" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="B70" s="10" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D71" s="50"/>
+      <c r="D71" s="40"/>
     </row>
     <row r="73" spans="1:10" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
@@ -2516,65 +2598,66 @@
         <v>0</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I77" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E78" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F78" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="J78" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="A73:I73"/>
@@ -2585,7 +2668,6 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
